--- a/Commands.xlsx
+++ b/Commands.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndeboni\GitHub\DiscordBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nik19\Desktop\Discord\DiscordBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94059CBA-3FBF-49BA-8942-670B175C0ED9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0D9C81-21FD-4346-8CA0-97216338EBD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8509F677-9B63-477D-9CE3-E780BB533F96}"/>
+    <workbookView xWindow="43080" yWindow="4680" windowWidth="28800" windowHeight="15435" xr2:uid="{8509F677-9B63-477D-9CE3-E780BB533F96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -521,7 +512,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,11 +559,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
